--- a/templates/API_MMS200MI_UpdItmWhs.xlsx
+++ b/templates/API_MMS200MI_UpdItmWhs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bharrison\PycharmProjects\m3DataConversion\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BradHarrison\PycharmProjects\m3DataConversion\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3369EBE0-534E-4DA6-9780-6966120D261A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A417E4C-6E6D-41C8-AEB2-8EBE7A53DE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4275" yWindow="2535" windowWidth="53175" windowHeight="18090" xr2:uid="{3C0318F9-715A-495B-A311-B2C3D2BE4AFD}"/>
+    <workbookView xWindow="52395" yWindow="690" windowWidth="38325" windowHeight="18660" xr2:uid="{3C0318F9-715A-495B-A311-B2C3D2BE4AFD}"/>
   </bookViews>
   <sheets>
     <sheet name="API_MMS200MI_UpdItmWhs" sheetId="2" r:id="rId1"/>
@@ -5951,7 +5951,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="327">
   <si>
     <t>MESSAGE</t>
   </si>
@@ -6933,9 +6933,6 @@
   </si>
   <si>
     <t>yes</t>
-  </si>
-  <si>
-    <t>yes|Opt:T/U/B</t>
   </si>
 </sst>
 </file>
@@ -7352,7 +7349,7 @@
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="AD10" sqref="AD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8446,7 +8443,7 @@
         <v>2</v>
       </c>
       <c r="AE3" s="6" t="s">
-        <v>327</v>
+        <v>2</v>
       </c>
       <c r="AF3" s="6" t="s">
         <v>2</v>
